--- a/tesla_node2light_mapping.xlsx
+++ b/tesla_node2light_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerdisch/Downloads/tesla-lightshow/tesla-lightshow/tesla-lightshow-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerdisch/Downloads/tesla-lightshow/tesla-lightshow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE157167-8776-DB43-878F-C1F9CDD74F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC365782-6CB4-394A-B01C-9A5E5F9E7153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesla_node2light_mapping" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="48" uniqueCount="48">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="52" uniqueCount="52">
   <si>
     <t>Left Outer Main Beam</t>
   </si>
@@ -178,13 +178,25 @@
   </si>
   <si>
     <t>Light Node</t>
+  </si>
+  <si>
+    <t>Provides a mapping of the strand node numbers to the names of the light/door/etc on the car</t>
+  </si>
+  <si>
+    <t>The raw data was gathered using this convoluted set of greps, seds and cuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grep index lightshow.xsq | cut -d"=" -f 2,3| sed s/name=//g|sed s/\"\&gt;//g|sed s/\"//| sed s/'" "'/,/g </t>
+  </si>
+  <si>
+    <t>lightshow.xsq is found in the lightshow example - which fortunately uses all the elements.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +334,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -669,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,6 +697,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1031,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,563 +1071,583 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B47" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>A7+1</f>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="B8:B52" si="0">A8+1</f>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>45</v>
+      </c>
+      <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/tesla_node2light_mapping.xlsx
+++ b/tesla_node2light_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerdisch/Downloads/tesla-lightshow/tesla-lightshow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DC365782-6CB4-394A-B01C-9A5E5F9E7153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{639B5F63-F164-6046-8F3C-DD1471DA977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>18</v>
       </c>
